--- a/tables/summary.xlsx
+++ b/tables/summary.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="10275"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Method Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,10 +24,170 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>stability single cell/bulk</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblast</t>
+  </si>
+  <si>
+    <t>Dendritic cell</t>
+  </si>
+  <si>
+    <t>Endothelial cell</t>
+  </si>
+  <si>
+    <t>Macrophage/Monocyte</t>
+  </si>
+  <si>
+    <t>NK cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ </t>
+  </si>
+  <si>
+    <t>T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t>T cell regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t>T cell CD8+</t>
+  </si>
+  <si>
+    <t>Validation Hoeck</t>
+  </si>
+  <si>
+    <t>Validation racle</t>
+  </si>
+  <si>
+    <t>Validation schelker ovarian</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Signal2Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation: </t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&gt; 0.9</t>
+  </si>
+  <si>
+    <t>&gt; 0.5</t>
+  </si>
+  <si>
+    <t>&lt;= 0.5</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>mixing benchmark</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>marker genes</t>
+  </si>
+  <si>
+    <t>xCell</t>
+  </si>
+  <si>
+    <t>quantiseq</t>
+  </si>
+  <si>
+    <t>deconvolution</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>cibersort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibersort abs. </t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>arbitray units</t>
+  </si>
+  <si>
+    <t>fraction of immune cells</t>
+  </si>
+  <si>
+    <t>fraction of total cells</t>
+  </si>
+  <si>
+    <t>&gt; 0.75</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,12 +211,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,12 +650,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="4.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" ht="138" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="E3">
+        <v>0.589190517891097</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>-0.36490638328632102</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>0.64369763089101595</v>
+      </c>
+      <c r="J3">
+        <v>0.68854628931668804</v>
+      </c>
+      <c r="K3">
+        <v>0.60697985960328804</v>
+      </c>
+      <c r="L3">
+        <v>0.36942013976992999</v>
+      </c>
+      <c r="M3">
+        <v>0.82640205941300504</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.61689797976544702</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0.84</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="E4">
+        <v>0.85753957963165905</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>-0.19013023796117201</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4">
+        <v>0.893688684597572</v>
+      </c>
+      <c r="J4">
+        <v>0.86656695993187705</v>
+      </c>
+      <c r="K4">
+        <v>0.87997106254419799</v>
+      </c>
+      <c r="L4">
+        <v>0.54149835823146397</v>
+      </c>
+      <c r="M4">
+        <v>0.91422244341049796</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.75835100835864</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="E5">
+        <v>0.98444272299421098</v>
+      </c>
+      <c r="F5">
+        <v>0.96785795598016799</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5">
+        <v>0.99213949674834301</v>
+      </c>
+      <c r="I5">
+        <v>0.97709710030663899</v>
+      </c>
+      <c r="J5">
+        <v>0.781815571726029</v>
+      </c>
+      <c r="K5">
+        <v>0.92309523066714405</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5">
+        <v>0.91970355912839896</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E6">
+        <v>0.98769992648267302</v>
+      </c>
+      <c r="F6">
+        <v>0.930157055092111</v>
+      </c>
+      <c r="G6">
+        <v>0.30021984926735601</v>
+      </c>
+      <c r="H6">
+        <v>0.91657945425777598</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6">
+        <v>0.91685996236052902</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6">
+        <v>0.96636461906411497</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.93303150127324197</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>0.56614171009283598</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7">
+        <v>0.62465614295384297</v>
+      </c>
+      <c r="J7">
+        <v>0.92838711467916002</v>
+      </c>
+      <c r="K7">
+        <v>0.75736603454892604</v>
+      </c>
+      <c r="L7">
+        <v>0.38380659003805501</v>
+      </c>
+      <c r="M7">
+        <v>0.97817287191325597</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.93411534284106801</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="E8">
+        <v>0.86772796365881899</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>0.55623571548560102</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>0.73487483841142998</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8">
+        <v>0.97146997879136399</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8">
+        <v>0.81153479013076402</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>-0.31</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.95404370525538296</v>
+      </c>
+      <c r="F9">
+        <v>0.57359133146475805</v>
+      </c>
+      <c r="G9">
+        <v>0.50227067655260704</v>
+      </c>
+      <c r="H9">
+        <v>0.97575154801192199</v>
+      </c>
+      <c r="I9">
+        <v>0.95471492344467102</v>
+      </c>
+      <c r="J9">
+        <v>0.61611402466759302</v>
+      </c>
+      <c r="K9">
+        <v>0.81982911968363803</v>
+      </c>
+      <c r="L9">
+        <v>0.50310708934863402</v>
+      </c>
+      <c r="M9">
+        <v>0.89653176155721603</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.89240207279893902</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:U9">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="E1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>